--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>47.30721766666667</v>
+        <v>1.104631</v>
       </c>
       <c r="H2">
-        <v>141.921653</v>
+        <v>3.313893</v>
       </c>
       <c r="I2">
-        <v>0.996628167810903</v>
+        <v>0.8734451962653081</v>
       </c>
       <c r="J2">
-        <v>0.9966281678109031</v>
+        <v>0.8734451962653083</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.554109</v>
+        <v>6.436245333333333</v>
       </c>
       <c r="N2">
-        <v>37.662327</v>
+        <v>19.308736</v>
       </c>
       <c r="O2">
-        <v>0.3769666338280888</v>
+        <v>0.2367562936388591</v>
       </c>
       <c r="P2">
-        <v>0.3769666338280886</v>
+        <v>0.2367562936388591</v>
       </c>
       <c r="Q2">
-        <v>593.8999670740591</v>
+        <v>7.109676118805334</v>
       </c>
       <c r="R2">
-        <v>5345.099703666531</v>
+        <v>63.987085069248</v>
       </c>
       <c r="S2">
-        <v>0.3756955655979317</v>
+        <v>0.2067936473644402</v>
       </c>
       <c r="T2">
-        <v>0.3756955655979316</v>
+        <v>0.2067936473644403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>47.30721766666667</v>
+        <v>1.104631</v>
       </c>
       <c r="H3">
-        <v>141.921653</v>
+        <v>3.313893</v>
       </c>
       <c r="I3">
-        <v>0.996628167810903</v>
+        <v>0.8734451962653081</v>
       </c>
       <c r="J3">
-        <v>0.9966281678109031</v>
+        <v>0.8734451962653083</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>44.92581</v>
       </c>
       <c r="O3">
-        <v>0.4496676843069278</v>
+        <v>0.5508630013028089</v>
       </c>
       <c r="P3">
-        <v>0.4496676843069278</v>
+        <v>0.550863001302809</v>
       </c>
       <c r="Q3">
-        <v>708.4383575071033</v>
+        <v>16.54214747537</v>
       </c>
       <c r="R3">
-        <v>6375.94521756393</v>
+        <v>148.87932727833</v>
       </c>
       <c r="S3">
-        <v>0.448151480334585</v>
+        <v>0.4811486422882286</v>
       </c>
       <c r="T3">
-        <v>0.448151480334585</v>
+        <v>0.4811486422882287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>47.30721766666667</v>
+        <v>1.104631</v>
       </c>
       <c r="H4">
-        <v>141.921653</v>
+        <v>3.313893</v>
       </c>
       <c r="I4">
-        <v>0.996628167810903</v>
+        <v>0.8734451962653081</v>
       </c>
       <c r="J4">
-        <v>0.9966281678109031</v>
+        <v>0.8734451962653083</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>17.320777</v>
       </c>
       <c r="O4">
-        <v>0.1733656818649836</v>
+        <v>0.212380705058332</v>
       </c>
       <c r="P4">
-        <v>0.1733656818649835</v>
+        <v>0.212380705058332</v>
       </c>
       <c r="Q4">
-        <v>273.1325892315979</v>
+        <v>6.377689072762334</v>
       </c>
       <c r="R4">
-        <v>2458.193303084381</v>
+        <v>57.399201654861</v>
       </c>
       <c r="S4">
-        <v>0.1727811218783865</v>
+        <v>0.1855029066126393</v>
       </c>
       <c r="T4">
-        <v>0.1727811218783865</v>
+        <v>0.1855029066126394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.480155</v>
       </c>
       <c r="I5">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="J5">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.554109</v>
+        <v>6.436245333333333</v>
       </c>
       <c r="N5">
-        <v>37.662327</v>
+        <v>19.308736</v>
       </c>
       <c r="O5">
-        <v>0.3769666338280888</v>
+        <v>0.2367562936388591</v>
       </c>
       <c r="P5">
-        <v>0.3769666338280886</v>
+        <v>0.2367562936388591</v>
       </c>
       <c r="Q5">
-        <v>2.009306068965</v>
+        <v>1.030131792675556</v>
       </c>
       <c r="R5">
-        <v>18.083754620685</v>
+        <v>9.271186134080001</v>
       </c>
       <c r="S5">
-        <v>0.001271068230157064</v>
+        <v>0.02996264627441887</v>
       </c>
       <c r="T5">
-        <v>0.001271068230157063</v>
+        <v>0.02996264627441888</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.480155</v>
       </c>
       <c r="I6">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="J6">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>44.92581</v>
       </c>
       <c r="O6">
-        <v>0.4496676843069278</v>
+        <v>0.5508630013028089</v>
       </c>
       <c r="P6">
-        <v>0.4496676843069278</v>
+        <v>0.550863001302809</v>
       </c>
       <c r="Q6">
         <v>2.396816922283334</v>
@@ -818,10 +818,10 @@
         <v>21.57135230055</v>
       </c>
       <c r="S6">
-        <v>0.001516203972342774</v>
+        <v>0.06971435901458024</v>
       </c>
       <c r="T6">
-        <v>0.001516203972342773</v>
+        <v>0.06971435901458026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.480155</v>
       </c>
       <c r="I7">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="J7">
-        <v>0.003371832189096925</v>
+        <v>0.1265548037346918</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>17.320777</v>
       </c>
       <c r="O7">
-        <v>0.1733656818649836</v>
+        <v>0.212380705058332</v>
       </c>
       <c r="P7">
-        <v>0.1733656818649835</v>
+        <v>0.212380705058332</v>
       </c>
       <c r="Q7">
         <v>0.924073075603889</v>
@@ -880,10 +880,10 @@
         <v>8.316657680435</v>
       </c>
       <c r="S7">
-        <v>0.0005845599865970885</v>
+        <v>0.02687779844569267</v>
       </c>
       <c r="T7">
-        <v>0.0005845599865970884</v>
+        <v>0.02687779844569268</v>
       </c>
     </row>
   </sheetData>
